--- a/front-and-back-matter/preface/attributions-ticks.xlsx
+++ b/front-and-back-matter/preface/attributions-ticks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/thesis/front-and-back-matter/preface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siobhon/Documents/Uni/PhD/Thesis-docs/PhD/front-and-back-matter/preface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358BAABB-E3DC-0749-810F-9BAD9815FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349C14D-FCC4-544D-BB6F-4401AB7277C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="27560" windowHeight="17540" xr2:uid="{8FE8EA6A-D3F9-9348-AB7E-E6CA5D287B3B}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="27500" windowHeight="17540" xr2:uid="{8FE8EA6A-D3F9-9348-AB7E-E6CA5D287B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Authorship order</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,9 +492,6 @@
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -506,7 +503,7 @@
       <c r="B4">
         <v>2.5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
